--- a/biology/Origine et évolution du vivant/Réversion/Réversion.xlsx
+++ b/biology/Origine et évolution du vivant/Réversion/Réversion.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>R%C3%A9version</t>
+          <t>Réversion</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t>La réversion est, en génétique, plus précisément dans le domaine de la biologie de l'évolution, le retour d'un caractère à un état primitif se manifestant par une mutation génique dans l'ADN permettant de retrouver les fonctions d'un gène après qu'il les a perdues à la suite d'une première mutation. Ce phénomène a permis aux biologistes de déterminer des lois mathématiques de réversion par l'atavisme convergent.
-La découverte de la réversion remet en cause[1] la loi de Dollo qui, énoncée par un paléontologue franco-belge du XIXe siècle, posait la nature irréversible de l'évolution.
+La découverte de la réversion remet en cause la loi de Dollo qui, énoncée par un paléontologue franco-belge du XIXe siècle, posait la nature irréversible de l'évolution.
 Il existe 2 types de réversion:
 les réversions vraies : le retour à l'état initial du gène. On appelle révertant vrai, les cellules issues de ce type de mutation.
 les reversions fausses : état différent de l'initial, mais permettant le rétablissement de la fonction. On appelle suppresseur (en) les cellules issues de ce type de mutation.</t>
